--- a/Manual Testing demo banking website/day6/TestCaseSuite_v1_module testing.xlsx
+++ b/Manual Testing demo banking website/day6/TestCaseSuite_v1_module testing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testing udacity\Guru99\day6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testing udacity\Guru99\Manual Testing demo banking website\day6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1B2F1F-FC0A-4935-BB73-E74C68390E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077B8C98-8197-4395-83AC-005F3EC3D99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
